--- a/Turma Intensivo - 439 - Noite Julho 2017/Aula 3/Aula Varios Ses 2.xlsx
+++ b/Turma Intensivo - 439 - Noite Julho 2017/Aula 3/Aula Varios Ses 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Contar e Somar" sheetId="3" r:id="rId1"/>
@@ -6914,7 +6914,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="68" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -7146,7 +7146,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9640845" cy="6011047"/>
+    <xdr:ext cx="9642593" cy="6008981"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -7693,7 +7693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J321"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -11999,7 +11999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -12047,11 +12047,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -12339,6 +12345,56 @@
     <row r="11" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Analise e Graficos'!B2:E2</xm:f>
+              <xm:sqref>H2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Analise e Graficos'!B3:E3</xm:f>
+              <xm:sqref>H3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Analise e Graficos'!B4:E4</xm:f>
+              <xm:sqref>H4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Analise e Graficos'!B5:E5</xm:f>
+              <xm:sqref>H5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Analise e Graficos'!B6:E6</xm:f>
+              <xm:sqref>H6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Analise e Graficos'!B7:E7</xm:f>
+              <xm:sqref>H7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Analise e Graficos'!B8:E8</xm:f>
+              <xm:sqref>H8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Analise e Graficos'!B9:E9</xm:f>
+              <xm:sqref>H9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
